--- a/farib/fariborzv2/20.xlsx
+++ b/farib/fariborzv2/20.xlsx
@@ -562,7 +562,7 @@
       <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" style="10" min="2" max="2"/>
     <col width="10.85" customWidth="1" style="10" min="3" max="3"/>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="n"/>
+      <c r="D4" s="18" t="inlineStr"/>
       <c r="E4" s="17" t="inlineStr">
         <is>
           <t>821/1301/434</t>
@@ -914,7 +914,7 @@
       <c r="K4" s="17" t="n"/>
       <c r="L4" s="17" t="n"/>
       <c r="M4" s="18" t="n"/>
-      <c r="N4" s="17" t="n"/>
+      <c r="N4" s="17" t="inlineStr"/>
       <c r="O4" s="20" t="inlineStr">
         <is>
           <t>9123811348</t>
@@ -926,8 +926,10 @@
       <c r="S4" s="19" t="n"/>
       <c r="T4" s="19" t="n"/>
       <c r="U4" s="19" t="n"/>
-      <c r="V4" s="17" t="n">
-        <v>32400</v>
+      <c r="V4" s="17" t="inlineStr">
+        <is>
+          <t>32400</t>
+        </is>
       </c>
       <c r="W4" s="19" t="n"/>
       <c r="X4" s="19" t="n"/>
@@ -991,8 +993,10 @@
       <c r="S5" s="19" t="n"/>
       <c r="T5" s="19" t="n"/>
       <c r="U5" s="19" t="n"/>
-      <c r="V5" s="17" t="n">
-        <v>8100</v>
+      <c r="V5" s="17" t="inlineStr">
+        <is>
+          <t>8100</t>
+        </is>
       </c>
       <c r="W5" s="19" t="n"/>
       <c r="X5" s="19" t="n"/>
@@ -1056,8 +1060,10 @@
       <c r="S6" s="19" t="n"/>
       <c r="T6" s="19" t="n"/>
       <c r="U6" s="19" t="n"/>
-      <c r="V6" s="17" t="n">
-        <v>3240</v>
+      <c r="V6" s="17" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
       </c>
       <c r="W6" s="19" t="n"/>
       <c r="X6" s="19" t="n"/>
@@ -1125,8 +1131,10 @@
       <c r="S7" s="19" t="n"/>
       <c r="T7" s="19" t="n"/>
       <c r="U7" s="19" t="n"/>
-      <c r="V7" s="17" t="n">
-        <v>216000</v>
+      <c r="V7" s="17" t="inlineStr">
+        <is>
+          <t>216000</t>
+        </is>
       </c>
       <c r="W7" s="19" t="n"/>
       <c r="X7" s="19" t="n"/>
@@ -1194,8 +1202,10 @@
       <c r="S8" s="19" t="n"/>
       <c r="T8" s="19" t="n"/>
       <c r="U8" s="19" t="n"/>
-      <c r="V8" s="17" t="n">
-        <v>358650</v>
+      <c r="V8" s="17" t="inlineStr">
+        <is>
+          <t>358650</t>
+        </is>
       </c>
       <c r="W8" s="19" t="n"/>
       <c r="X8" s="19" t="n"/>
@@ -1263,8 +1273,10 @@
       <c r="S9" s="19" t="n"/>
       <c r="T9" s="19" t="n"/>
       <c r="U9" s="19" t="n"/>
-      <c r="V9" s="17" t="n">
-        <v>216000</v>
+      <c r="V9" s="17" t="inlineStr">
+        <is>
+          <t>216000</t>
+        </is>
       </c>
       <c r="W9" s="19" t="n"/>
       <c r="X9" s="19" t="n"/>
@@ -1332,8 +1344,10 @@
       <c r="S10" s="19" t="n"/>
       <c r="T10" s="19" t="n"/>
       <c r="U10" s="19" t="n"/>
-      <c r="V10" s="17" t="n">
-        <v>990000</v>
+      <c r="V10" s="17" t="inlineStr">
+        <is>
+          <t>990000</t>
+        </is>
       </c>
       <c r="W10" s="19" t="n"/>
       <c r="X10" s="19" t="n"/>
@@ -1396,13 +1410,15 @@
         </is>
       </c>
       <c r="P11" s="19" t="n"/>
-      <c r="Q11" s="18" t="n"/>
+      <c r="Q11" s="18" t="inlineStr"/>
       <c r="R11" s="17" t="n"/>
       <c r="S11" s="19" t="n"/>
       <c r="T11" s="19" t="n"/>
       <c r="U11" s="19" t="n"/>
-      <c r="V11" s="17" t="n">
-        <v>422208</v>
+      <c r="V11" s="17" t="inlineStr">
+        <is>
+          <t>422208</t>
+        </is>
       </c>
       <c r="W11" s="19" t="n"/>
       <c r="X11" s="19" t="n"/>
@@ -1465,13 +1481,19 @@
         </is>
       </c>
       <c r="P12" s="19" t="n"/>
-      <c r="Q12" s="18" t="n"/>
+      <c r="Q12" s="18" t="inlineStr">
+        <is>
+          <t>تهران</t>
+        </is>
+      </c>
       <c r="R12" s="17" t="n"/>
       <c r="S12" s="19" t="n"/>
       <c r="T12" s="19" t="n"/>
       <c r="U12" s="19" t="n"/>
-      <c r="V12" s="17" t="n">
-        <v>164970</v>
+      <c r="V12" s="17" t="inlineStr">
+        <is>
+          <t>164970</t>
+        </is>
       </c>
       <c r="W12" s="19" t="n"/>
       <c r="X12" s="19" t="n"/>
@@ -1492,8 +1514,8 @@
           <t>قزوين</t>
         </is>
       </c>
-      <c r="C13" s="18" t="n"/>
-      <c r="D13" s="18" t="n"/>
+      <c r="C13" s="18" t="inlineStr"/>
+      <c r="D13" s="18" t="inlineStr"/>
       <c r="E13" s="17" t="inlineStr">
         <is>
           <t>0110041/126/103</t>
@@ -1519,10 +1541,10 @@
           <t xml:space="preserve"> حق وردیلو و شرکا</t>
         </is>
       </c>
-      <c r="J13" s="19" t="n"/>
-      <c r="K13" s="17" t="n"/>
-      <c r="L13" s="17" t="n"/>
-      <c r="M13" s="18" t="n"/>
+      <c r="J13" s="19" t="inlineStr"/>
+      <c r="K13" s="17" t="inlineStr"/>
+      <c r="L13" s="17" t="inlineStr"/>
+      <c r="M13" s="18" t="inlineStr"/>
       <c r="N13" s="17" t="inlineStr">
         <is>
           <t>4321618045</t>
@@ -1533,17 +1555,23 @@
           <t>9121817097</t>
         </is>
       </c>
-      <c r="P13" s="19" t="n"/>
-      <c r="Q13" s="18" t="n"/>
-      <c r="R13" s="17" t="n"/>
-      <c r="S13" s="19" t="n"/>
-      <c r="T13" s="19" t="n"/>
-      <c r="U13" s="19" t="n"/>
-      <c r="V13" s="17" t="n">
-        <v>380808</v>
-      </c>
-      <c r="W13" s="19" t="n"/>
-      <c r="X13" s="19" t="n"/>
+      <c r="P13" s="19" t="inlineStr"/>
+      <c r="Q13" s="18" t="inlineStr">
+        <is>
+          <t>تهران ثثثق</t>
+        </is>
+      </c>
+      <c r="R13" s="17" t="inlineStr"/>
+      <c r="S13" s="19" t="inlineStr"/>
+      <c r="T13" s="19" t="inlineStr"/>
+      <c r="U13" s="19" t="inlineStr"/>
+      <c r="V13" s="17" t="inlineStr">
+        <is>
+          <t>380808</t>
+        </is>
+      </c>
+      <c r="W13" s="19" t="inlineStr"/>
+      <c r="X13" s="19" t="inlineStr"/>
       <c r="Y13" s="19" t="n"/>
       <c r="Z13" s="19" t="n"/>
       <c r="AA13" s="19" t="n"/>
@@ -1603,13 +1631,15 @@
         </is>
       </c>
       <c r="P14" s="19" t="n"/>
-      <c r="Q14" s="18" t="n"/>
+      <c r="Q14" s="18" t="inlineStr"/>
       <c r="R14" s="17" t="n"/>
       <c r="S14" s="19" t="n"/>
       <c r="T14" s="19" t="n"/>
       <c r="U14" s="19" t="n"/>
-      <c r="V14" s="17" t="n">
-        <v>352642</v>
+      <c r="V14" s="17" t="inlineStr">
+        <is>
+          <t>352642</t>
+        </is>
       </c>
       <c r="W14" s="19" t="n"/>
       <c r="X14" s="19" t="n"/>
@@ -1677,8 +1707,10 @@
       <c r="S15" s="19" t="n"/>
       <c r="T15" s="19" t="n"/>
       <c r="U15" s="19" t="n"/>
-      <c r="V15" s="17" t="n">
-        <v>245340</v>
+      <c r="V15" s="17" t="inlineStr">
+        <is>
+          <t>245340</t>
+        </is>
       </c>
       <c r="W15" s="19" t="n"/>
       <c r="X15" s="19" t="n"/>
@@ -1746,8 +1778,10 @@
       <c r="S16" s="19" t="n"/>
       <c r="T16" s="19" t="n"/>
       <c r="U16" s="19" t="n"/>
-      <c r="V16" s="17" t="n">
-        <v>108000</v>
+      <c r="V16" s="17" t="inlineStr">
+        <is>
+          <t>108000</t>
+        </is>
       </c>
       <c r="W16" s="19" t="n"/>
       <c r="X16" s="19" t="n"/>
@@ -1815,8 +1849,10 @@
       <c r="S17" s="19" t="n"/>
       <c r="T17" s="19" t="n"/>
       <c r="U17" s="19" t="n"/>
-      <c r="V17" s="17" t="n">
-        <v>347213</v>
+      <c r="V17" s="17" t="inlineStr">
+        <is>
+          <t>347213</t>
+        </is>
       </c>
       <c r="W17" s="19" t="n"/>
       <c r="X17" s="19" t="n"/>
